--- a/6-9 安心健康管家公众号/2c产品.xlsx
+++ b/6-9 安心健康管家公众号/2c产品.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\6-9 运营对接有赞商城\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\6-9 安心健康管家公众号\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>产品名称</t>
   </si>
@@ -61,35 +61,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>电话医生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频医生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助挂号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线咨询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠购药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾绿通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>I20AT0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>尊享健康卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话医生</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频医生</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自助挂号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线咨询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠购药</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾绿通</t>
+    <t>优享健康卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AS9</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -194,13 +198,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,7 +542,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -547,85 +551,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -637,5 +641,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>